--- a/ExcellentParticipations.xlsx
+++ b/ExcellentParticipations.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\PdM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B0883-6BEF-44E3-BA99-096E98E72307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC8B157-77AD-47B4-9A1C-7CAD21059F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="git_github" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -281,6 +281,30 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Git Hub 情况</t>
+  </si>
+  <si>
+    <t>&lt;例子&gt;</t>
+  </si>
+  <si>
+    <t>建好了</t>
+  </si>
+  <si>
+    <t>git 情况</t>
+  </si>
+  <si>
+    <t>没有建好</t>
+  </si>
+  <si>
+    <t>Git Hub 附加信息</t>
+  </si>
+  <si>
+    <t>git 附加信息</t>
+  </si>
+  <si>
+    <t>安装git 不成功</t>
   </si>
 </sst>
 </file>
@@ -371,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,6 +427,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1804,32 +1831,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2543012386</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+  </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{E43B5908-5AC6-4375-AA8E-3E4FA37DF751}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{EB07A4CD-D57E-4453-B589-EE167FA39CB6}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{CDA36D99-D7ED-41DA-8E85-CD181F6C411E}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{0E4A953C-ECB3-443C-A4F8-903F58DE2873}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{394A8F6A-27C7-450B-B9D1-6BE4BED84483}"/>
+    <hyperlink ref="B23" r:id="rId6" tooltip="mailto:2016961190@qq.com" xr:uid="{F341EA77-2DF5-4A1D-9539-191CDF4CB442}"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="mailto:2113015736@qq.com" xr:uid="{17014FC2-F601-4963-B036-57667F0266FF}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{B9EB8A4C-6A15-4178-A922-BCCC2F4A8D80}"/>
+    <hyperlink ref="B18" r:id="rId9" tooltip="mailto:2794218452@qq.com" xr:uid="{D57ADCB4-5CDC-424D-B3D0-53E1F54EEEB8}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{449FCF5B-642F-45F3-AF32-39C305B29A1D}"/>
+    <hyperlink ref="B24" r:id="rId11" xr:uid="{BA500230-5353-41AB-A2B0-36AAA5B90937}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{B899F904-A494-473F-8A91-05A90F279F1B}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{0186F0AA-622D-4B7F-8ED0-6DD25987F79E}"/>
+    <hyperlink ref="B21" r:id="rId14" tooltip="mailto:353583513@qq.com" xr:uid="{B7E9A105-06B0-4E74-AB02-9F977471E045}"/>
+    <hyperlink ref="B3" r:id="rId15" tooltip="mailto:2543012386@qq.com" xr:uid="{A2DE7FF4-537E-4A05-B63F-F2F10C9E7789}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{D1D43D01-E9D2-41B6-B1E6-DACBFEB3741C}"/>
+    <hyperlink ref="B14" r:id="rId17" xr:uid="{764DD08B-AA81-42DB-9508-5BEE64EA6E1E}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{AE79899B-264D-4BFE-AA9E-F5FD4BDBF71C}"/>
+    <hyperlink ref="B7" r:id="rId19" tooltip="mailto:3322650380@qq.com" xr:uid="{7BE88EB6-B5FD-4E3D-B581-B92BED181B09}"/>
+    <hyperlink ref="B5" r:id="rId20" xr:uid="{9622A48F-8DC7-4481-B3D3-A07DD415B05B}"/>
+    <hyperlink ref="B16" r:id="rId21" xr:uid="{7329DD09-5720-4D13-A639-38DE3A1F2A16}"/>
+    <hyperlink ref="B15" r:id="rId22" xr:uid="{B24A6F10-8931-4425-99A9-54488AEF51C7}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1840,15 +2200,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1862,13 +2224,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1880,13 +2242,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
